--- a/SimulatorUser/ImportData/userInfo.xlsx
+++ b/SimulatorUser/ImportData/userInfo.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\blazo\OneDrive\Namizje\GitHub\EthStevecDevice\SimulatorUser\ImportData\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{549991E8-26A2-4547-9D23-03501BCB01B8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C806B211-7EBD-4B60-A17B-913042E54F9E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="25440" windowHeight="15390" tabRatio="500" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" tabRatio="500" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="userHomeProperties" sheetId="1" r:id="rId1"/>
@@ -205,59 +205,59 @@
   </cellStyleXfs>
   <cellXfs count="19">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="4" fontId="0" fillId="2" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="4" fontId="0" fillId="4" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="12" fontId="0" fillId="4" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="4" fontId="0" fillId="2" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="4" fontId="0" fillId="4" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -657,148 +657,148 @@
   </cols>
   <sheetData>
     <row r="2" spans="2:11" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="D2" s="2" t="s">
+      <c r="D2" s="17" t="s">
         <v>0</v>
       </c>
-      <c r="E2" s="2"/>
-      <c r="F2" s="2"/>
-      <c r="G2" s="2"/>
-      <c r="H2" s="2"/>
-      <c r="I2" s="2"/>
-      <c r="J2" s="2"/>
-      <c r="K2" s="2"/>
+      <c r="E2" s="17"/>
+      <c r="F2" s="17"/>
+      <c r="G2" s="17"/>
+      <c r="H2" s="17"/>
+      <c r="I2" s="17"/>
+      <c r="J2" s="17"/>
+      <c r="K2" s="17"/>
     </row>
     <row r="3" spans="2:11" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B3" s="3" t="s">
+      <c r="B3" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="C3" s="4" t="s">
+      <c r="C3" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="D3" s="5" t="s">
+      <c r="D3" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="E3" s="5" t="s">
+      <c r="E3" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="F3" s="5" t="s">
+      <c r="F3" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="G3" s="5" t="s">
+      <c r="G3" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="H3" s="6" t="s">
+      <c r="H3" s="4" t="s">
         <v>7</v>
       </c>
-      <c r="I3" s="6" t="s">
+      <c r="I3" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="J3" s="5" t="s">
+      <c r="J3" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="K3" s="5" t="s">
+      <c r="K3" s="3" t="s">
         <v>10</v>
       </c>
     </row>
     <row r="4" spans="2:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B4" s="7">
+      <c r="B4" s="5">
         <v>1</v>
       </c>
-      <c r="C4" s="8">
+      <c r="C4" s="6">
         <v>25</v>
       </c>
-      <c r="D4" s="9" t="s">
+      <c r="D4" s="7" t="s">
         <v>11</v>
       </c>
-      <c r="E4" s="10">
+      <c r="E4" s="8">
         <v>10</v>
       </c>
-      <c r="F4" s="10">
+      <c r="F4" s="8">
         <v>5</v>
       </c>
-      <c r="G4" s="10">
+      <c r="G4" s="8">
         <v>5</v>
       </c>
-      <c r="H4" s="10">
-        <v>85</v>
-      </c>
-      <c r="I4" s="10">
-        <v>85</v>
-      </c>
-      <c r="J4" s="10">
+      <c r="H4" s="8">
+        <v>85</v>
+      </c>
+      <c r="I4" s="8">
+        <v>85</v>
+      </c>
+      <c r="J4" s="8">
         <v>100</v>
       </c>
-      <c r="K4" s="10">
+      <c r="K4" s="8">
         <v>5</v>
       </c>
     </row>
     <row r="5" spans="2:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B5" s="7">
+      <c r="B5" s="5">
         <v>2</v>
       </c>
-      <c r="C5" s="11">
+      <c r="C5" s="9">
         <v>25</v>
       </c>
-      <c r="D5" s="9" t="s">
+      <c r="D5" s="7" t="s">
         <v>11</v>
       </c>
-      <c r="E5" s="10">
+      <c r="E5" s="8">
         <v>20</v>
       </c>
-      <c r="F5" s="10">
+      <c r="F5" s="8">
         <v>10</v>
       </c>
-      <c r="G5" s="10">
+      <c r="G5" s="8">
         <v>10</v>
       </c>
-      <c r="H5" s="10">
-        <v>85</v>
-      </c>
-      <c r="I5" s="10">
-        <v>85</v>
-      </c>
-      <c r="J5" s="10">
+      <c r="H5" s="8">
+        <v>85</v>
+      </c>
+      <c r="I5" s="8">
+        <v>85</v>
+      </c>
+      <c r="J5" s="8">
         <v>100</v>
       </c>
-      <c r="K5" s="10">
+      <c r="K5" s="8">
         <v>5</v>
       </c>
     </row>
     <row r="6" spans="2:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B6" s="7">
+      <c r="B6" s="5">
         <v>3</v>
       </c>
-      <c r="C6" s="11">
+      <c r="C6" s="9">
         <v>25</v>
       </c>
-      <c r="D6" s="9" t="s">
+      <c r="D6" s="7" t="s">
         <v>12</v>
       </c>
-      <c r="E6" s="10"/>
-      <c r="F6" s="10"/>
-      <c r="G6" s="10"/>
-      <c r="H6" s="10"/>
-      <c r="I6" s="10"/>
-      <c r="J6" s="10"/>
-      <c r="K6" s="10"/>
+      <c r="E6" s="8"/>
+      <c r="F6" s="8"/>
+      <c r="G6" s="8"/>
+      <c r="H6" s="8"/>
+      <c r="I6" s="8"/>
+      <c r="J6" s="8"/>
+      <c r="K6" s="8"/>
     </row>
     <row r="7" spans="2:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B7" s="7">
+      <c r="B7" s="5">
         <v>4</v>
       </c>
-      <c r="C7" s="11">
+      <c r="C7" s="9">
         <v>25</v>
       </c>
-      <c r="D7" s="9" t="s">
+      <c r="D7" s="7" t="s">
         <v>12</v>
       </c>
-      <c r="E7" s="10"/>
-      <c r="F7" s="10"/>
-      <c r="G7" s="10"/>
-      <c r="H7" s="10"/>
-      <c r="I7" s="10"/>
-      <c r="J7" s="10"/>
-      <c r="K7" s="10"/>
+      <c r="E7" s="8"/>
+      <c r="F7" s="8"/>
+      <c r="G7" s="8"/>
+      <c r="H7" s="8"/>
+      <c r="I7" s="8"/>
+      <c r="J7" s="8"/>
+      <c r="K7" s="8"/>
     </row>
   </sheetData>
   <mergeCells count="1">
@@ -825,158 +825,158 @@
   </cols>
   <sheetData>
     <row r="2" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="D2" s="1" t="s">
+      <c r="D2" s="18" t="s">
         <v>13</v>
       </c>
-      <c r="E2" s="1"/>
-      <c r="F2" s="1"/>
-      <c r="G2" s="1"/>
-      <c r="H2" s="1"/>
-      <c r="I2" s="1"/>
-      <c r="J2" s="1"/>
+      <c r="E2" s="18"/>
+      <c r="F2" s="18"/>
+      <c r="G2" s="18"/>
+      <c r="H2" s="18"/>
+      <c r="I2" s="18"/>
+      <c r="J2" s="18"/>
     </row>
     <row r="3" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B3" s="3" t="s">
+      <c r="B3" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="C3" s="4" t="s">
+      <c r="C3" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="D3" s="12" t="s">
+      <c r="D3" s="10" t="s">
         <v>4</v>
       </c>
-      <c r="E3" s="13" t="s">
+      <c r="E3" s="11" t="s">
         <v>5</v>
       </c>
-      <c r="F3" s="13" t="s">
+      <c r="F3" s="11" t="s">
         <v>6</v>
       </c>
-      <c r="G3" s="14" t="s">
+      <c r="G3" s="12" t="s">
         <v>7</v>
       </c>
-      <c r="H3" s="14" t="s">
+      <c r="H3" s="12" t="s">
         <v>8</v>
       </c>
-      <c r="I3" s="13" t="s">
+      <c r="I3" s="11" t="s">
         <v>9</v>
       </c>
-      <c r="J3" s="13" t="s">
+      <c r="J3" s="11" t="s">
         <v>10</v>
       </c>
     </row>
     <row r="4" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B4" s="7">
+      <c r="B4" s="5">
         <v>1</v>
       </c>
-      <c r="C4" s="8">
+      <c r="C4" s="6">
         <v>1</v>
       </c>
-      <c r="D4" s="15">
+      <c r="D4" s="13">
         <v>100</v>
       </c>
-      <c r="E4" s="15">
+      <c r="E4" s="13">
         <v>11</v>
       </c>
-      <c r="F4" s="15">
+      <c r="F4" s="13">
         <v>11</v>
       </c>
-      <c r="G4" s="15">
-        <v>85</v>
-      </c>
-      <c r="H4" s="15">
-        <v>85</v>
-      </c>
-      <c r="I4" s="15">
+      <c r="G4" s="13">
+        <v>85</v>
+      </c>
+      <c r="H4" s="13">
+        <v>85</v>
+      </c>
+      <c r="I4" s="13">
         <v>80</v>
       </c>
-      <c r="J4" s="15">
+      <c r="J4" s="13">
         <v>50</v>
       </c>
     </row>
     <row r="5" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B5" s="7">
+      <c r="B5" s="5">
         <v>2</v>
       </c>
-      <c r="C5" s="11">
+      <c r="C5" s="9">
         <v>1</v>
       </c>
-      <c r="D5" s="15">
+      <c r="D5" s="13">
         <v>100</v>
       </c>
-      <c r="E5" s="15">
+      <c r="E5" s="13">
         <v>11</v>
       </c>
-      <c r="F5" s="15">
+      <c r="F5" s="13">
         <v>11</v>
       </c>
-      <c r="G5" s="15">
-        <v>85</v>
-      </c>
-      <c r="H5" s="15">
-        <v>85</v>
-      </c>
-      <c r="I5" s="15">
+      <c r="G5" s="13">
+        <v>85</v>
+      </c>
+      <c r="H5" s="13">
+        <v>85</v>
+      </c>
+      <c r="I5" s="13">
         <v>80</v>
       </c>
-      <c r="J5" s="15">
+      <c r="J5" s="13">
         <v>50</v>
       </c>
     </row>
     <row r="6" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B6" s="7">
+      <c r="B6" s="5">
         <v>3</v>
       </c>
-      <c r="C6" s="11">
+      <c r="C6" s="9">
         <v>1</v>
       </c>
-      <c r="D6" s="15">
+      <c r="D6" s="13">
         <v>75</v>
       </c>
-      <c r="E6" s="15">
+      <c r="E6" s="13">
         <v>7</v>
       </c>
-      <c r="F6" s="15">
+      <c r="F6" s="13">
         <v>7</v>
       </c>
-      <c r="G6" s="15">
-        <v>85</v>
-      </c>
-      <c r="H6" s="15">
-        <v>85</v>
-      </c>
-      <c r="I6" s="15">
+      <c r="G6" s="13">
+        <v>85</v>
+      </c>
+      <c r="H6" s="13">
+        <v>85</v>
+      </c>
+      <c r="I6" s="13">
         <v>80</v>
       </c>
-      <c r="J6" s="15">
+      <c r="J6" s="13">
         <v>50</v>
       </c>
     </row>
     <row r="7" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B7" s="7">
+      <c r="B7" s="5">
         <v>4</v>
       </c>
-      <c r="C7" s="11">
+      <c r="C7" s="9">
         <v>1</v>
       </c>
-      <c r="D7" s="15">
+      <c r="D7" s="13">
         <v>75</v>
       </c>
-      <c r="E7" s="15">
+      <c r="E7" s="13">
         <v>7</v>
       </c>
-      <c r="F7" s="15">
+      <c r="F7" s="13">
         <v>7</v>
       </c>
-      <c r="G7" s="15">
-        <v>85</v>
-      </c>
-      <c r="H7" s="15">
-        <v>85</v>
-      </c>
-      <c r="I7" s="15">
+      <c r="G7" s="13">
+        <v>85</v>
+      </c>
+      <c r="H7" s="13">
+        <v>85</v>
+      </c>
+      <c r="I7" s="13">
         <v>80</v>
       </c>
-      <c r="J7" s="15">
+      <c r="J7" s="13">
         <v>50</v>
       </c>
     </row>
@@ -1003,46 +1003,46 @@
   </cols>
   <sheetData>
     <row r="2" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B2" s="16" t="s">
+      <c r="B2" s="14" t="s">
         <v>15</v>
       </c>
-      <c r="C2" s="16" t="s">
+      <c r="C2" s="14" t="s">
         <v>16</v>
       </c>
-      <c r="D2" s="16" t="s">
+      <c r="D2" s="14" t="s">
         <v>17</v>
       </c>
     </row>
     <row r="3" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B3" s="17">
+      <c r="B3" s="15">
         <v>1</v>
       </c>
-      <c r="C3" s="18">
+      <c r="C3" s="16">
         <v>8</v>
       </c>
-      <c r="D3" s="18">
+      <c r="D3" s="16">
         <v>10</v>
       </c>
     </row>
     <row r="4" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B4" s="17">
+      <c r="B4" s="15">
         <v>2</v>
       </c>
-      <c r="C4" s="18">
+      <c r="C4" s="16">
         <v>8</v>
       </c>
-      <c r="D4" s="18">
+      <c r="D4" s="16">
         <v>20</v>
       </c>
     </row>
     <row r="5" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B5" s="17">
+      <c r="B5" s="15">
         <v>3</v>
       </c>
-      <c r="C5" s="18">
+      <c r="C5" s="16">
         <v>8</v>
       </c>
-      <c r="D5" s="18">
+      <c r="D5" s="16">
         <v>30</v>
       </c>
     </row>

--- a/SimulatorUser/ImportData/userInfo.xlsx
+++ b/SimulatorUser/ImportData/userInfo.xlsx
@@ -8,16 +8,16 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\blazo\OneDrive\Namizje\GitHub\EthStevecDevice\SimulatorUser\ImportData\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C806B211-7EBD-4B60-A17B-913042E54F9E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{22A21DD9-0E7F-4221-93A4-DA485E51C5C4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" tabRatio="500" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="15840" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="userHomeProperties" sheetId="1" r:id="rId1"/>
     <sheet name="userCarProperties" sheetId="2" r:id="rId2"/>
     <sheet name="systemTariffPrices" sheetId="3" r:id="rId3"/>
   </sheets>
-  <calcPr calcId="0"/>
+  <calcPr calcId="0" iterateDelta="1E-4"/>
   <extLst>
     <ext xmlns:loext="http://schemas.libreoffice.org/" uri="{7626C862-2A13-11E5-B345-FEFF819CDC9F}">
       <loext:extCalcPr stringRefSyntax="CalcA1"/>
@@ -203,7 +203,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="19">
+  <cellXfs count="21">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -258,6 +258,12 @@
     </xf>
     <xf numFmtId="12" fontId="0" fillId="4" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="1" fontId="0" fillId="4" borderId="4" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="3" fontId="0" fillId="4" borderId="4" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -643,20 +649,20 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="B2:K7"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="E23" sqref="E23"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="C34" sqref="C34"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="8.85546875" customWidth="1"/>
-    <col min="2" max="2" width="11.42578125" customWidth="1"/>
-    <col min="3" max="3" width="22.85546875" customWidth="1"/>
-    <col min="4" max="11" width="11.42578125" customWidth="1"/>
-    <col min="12" max="29" width="11.85546875" customWidth="1"/>
+    <col min="1" max="1" width="8.88671875" customWidth="1"/>
+    <col min="2" max="2" width="11.44140625" customWidth="1"/>
+    <col min="3" max="3" width="22.88671875" customWidth="1"/>
+    <col min="4" max="11" width="11.44140625" customWidth="1"/>
+    <col min="12" max="29" width="11.88671875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:11" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="2:11" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="D2" s="17" t="s">
         <v>0</v>
       </c>
@@ -668,7 +674,7 @@
       <c r="J2" s="17"/>
       <c r="K2" s="17"/>
     </row>
-    <row r="3" spans="2:11" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="3" spans="2:11" ht="16.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B3" s="1" t="s">
         <v>1</v>
       </c>
@@ -700,7 +706,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="4" spans="2:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="2:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B4" s="5">
         <v>1</v>
       </c>
@@ -732,7 +738,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="5" spans="2:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="5" spans="2:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B5" s="5">
         <v>2</v>
       </c>
@@ -764,7 +770,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="6" spans="2:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="6" spans="2:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B6" s="5">
         <v>3</v>
       </c>
@@ -782,7 +788,7 @@
       <c r="J6" s="8"/>
       <c r="K6" s="8"/>
     </row>
-    <row r="7" spans="2:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="7" spans="2:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B7" s="5">
         <v>4</v>
       </c>
@@ -813,18 +819,18 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="B2:J7"/>
   <sheetViews>
-    <sheetView topLeftCell="F1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="T20" sqref="T20"/>
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="I14" sqref="I14"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="2" max="2" width="11.42578125" customWidth="1"/>
-    <col min="3" max="3" width="17.140625" customWidth="1"/>
-    <col min="4" max="10" width="11.42578125" customWidth="1"/>
+    <col min="2" max="2" width="11.44140625" customWidth="1"/>
+    <col min="3" max="3" width="17.109375" customWidth="1"/>
+    <col min="4" max="10" width="11.44140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="D2" s="18" t="s">
         <v>13</v>
       </c>
@@ -835,7 +841,7 @@
       <c r="I2" s="18"/>
       <c r="J2" s="18"/>
     </row>
-    <row r="3" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="3" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B3" s="1" t="s">
         <v>1</v>
       </c>
@@ -864,7 +870,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="4" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B4" s="5">
         <v>1</v>
       </c>
@@ -872,28 +878,28 @@
         <v>1</v>
       </c>
       <c r="D4" s="13">
-        <v>100</v>
+        <v>75</v>
       </c>
       <c r="E4" s="13">
         <v>11</v>
       </c>
-      <c r="F4" s="13">
-        <v>11</v>
+      <c r="F4" s="20">
+        <v>3</v>
       </c>
       <c r="G4" s="13">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="H4" s="13">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="I4" s="13">
-        <v>80</v>
+        <v>100</v>
       </c>
       <c r="J4" s="13">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="5" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="5" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B5" s="5">
         <v>2</v>
       </c>
@@ -906,8 +912,8 @@
       <c r="E5" s="13">
         <v>11</v>
       </c>
-      <c r="F5" s="13">
-        <v>11</v>
+      <c r="F5" s="19">
+        <v>3</v>
       </c>
       <c r="G5" s="13">
         <v>85</v>
@@ -916,13 +922,13 @@
         <v>85</v>
       </c>
       <c r="I5" s="13">
-        <v>80</v>
+        <v>100</v>
       </c>
       <c r="J5" s="13">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="6" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="6" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B6" s="5">
         <v>3</v>
       </c>
@@ -930,13 +936,13 @@
         <v>1</v>
       </c>
       <c r="D6" s="13">
-        <v>75</v>
+        <v>100</v>
       </c>
       <c r="E6" s="13">
-        <v>7</v>
-      </c>
-      <c r="F6" s="13">
-        <v>7</v>
+        <v>11</v>
+      </c>
+      <c r="F6" s="19">
+        <v>3</v>
       </c>
       <c r="G6" s="13">
         <v>85</v>
@@ -945,13 +951,13 @@
         <v>85</v>
       </c>
       <c r="I6" s="13">
-        <v>80</v>
+        <v>100</v>
       </c>
       <c r="J6" s="13">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="7" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="7" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B7" s="5">
         <v>4</v>
       </c>
@@ -962,22 +968,22 @@
         <v>75</v>
       </c>
       <c r="E7" s="13">
-        <v>7</v>
-      </c>
-      <c r="F7" s="13">
-        <v>7</v>
+        <v>11</v>
+      </c>
+      <c r="F7" s="19">
+        <v>3</v>
       </c>
       <c r="G7" s="13">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="H7" s="13">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="I7" s="13">
-        <v>80</v>
+        <v>100</v>
       </c>
       <c r="J7" s="13">
-        <v>50</v>
+        <v>40</v>
       </c>
     </row>
   </sheetData>
@@ -993,16 +999,16 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="B2:D5"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="G22" sqref="G22"/>
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="F6" sqref="F6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="9.109375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="2" max="4" width="22.85546875" customWidth="1"/>
+    <col min="2" max="4" width="22.88671875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="2" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B2" s="14" t="s">
         <v>15</v>
       </c>
@@ -1013,7 +1019,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="3" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="3" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B3" s="15">
         <v>1</v>
       </c>
@@ -1024,7 +1030,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="4" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="4" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B4" s="15">
         <v>2</v>
       </c>
@@ -1035,7 +1041,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="5" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="5" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B5" s="15">
         <v>3</v>
       </c>

--- a/SimulatorUser/ImportData/userInfo.xlsx
+++ b/SimulatorUser/ImportData/userInfo.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\blazo\OneDrive\Namizje\GitHub\EthStevecDevice\SimulatorUser\ImportData\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{22A21DD9-0E7F-4221-93A4-DA485E51C5C4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AD2DEA6B-A7DA-486F-9A96-9442F1496553}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="15840" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -253,17 +253,17 @@
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="1" fontId="0" fillId="4" borderId="4" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="3" fontId="0" fillId="4" borderId="4" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="12" fontId="0" fillId="4" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="1" fontId="0" fillId="4" borderId="4" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="3" fontId="0" fillId="4" borderId="4" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -650,7 +650,7 @@
   <dimension ref="B2:K7"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="C34" sqref="C34"/>
+      <selection activeCell="D18" sqref="D18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -663,16 +663,16 @@
   </cols>
   <sheetData>
     <row r="2" spans="2:11" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="D2" s="17" t="s">
+      <c r="D2" s="19" t="s">
         <v>0</v>
       </c>
-      <c r="E2" s="17"/>
-      <c r="F2" s="17"/>
-      <c r="G2" s="17"/>
-      <c r="H2" s="17"/>
-      <c r="I2" s="17"/>
-      <c r="J2" s="17"/>
-      <c r="K2" s="17"/>
+      <c r="E2" s="19"/>
+      <c r="F2" s="19"/>
+      <c r="G2" s="19"/>
+      <c r="H2" s="19"/>
+      <c r="I2" s="19"/>
+      <c r="J2" s="19"/>
+      <c r="K2" s="19"/>
     </row>
     <row r="3" spans="2:11" ht="16.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B3" s="1" t="s">
@@ -711,7 +711,7 @@
         <v>1</v>
       </c>
       <c r="C4" s="6">
-        <v>25</v>
+        <v>17</v>
       </c>
       <c r="D4" s="7" t="s">
         <v>11</v>
@@ -732,10 +732,10 @@
         <v>85</v>
       </c>
       <c r="J4" s="8">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="K4" s="8">
-        <v>5</v>
+        <v>2</v>
       </c>
     </row>
     <row r="5" spans="2:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
@@ -743,7 +743,7 @@
         <v>2</v>
       </c>
       <c r="C5" s="9">
-        <v>25</v>
+        <v>17</v>
       </c>
       <c r="D5" s="7" t="s">
         <v>11</v>
@@ -758,16 +758,16 @@
         <v>10</v>
       </c>
       <c r="H5" s="8">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="I5" s="8">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="J5" s="8">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="K5" s="8">
-        <v>5</v>
+        <v>2</v>
       </c>
     </row>
     <row r="6" spans="2:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
@@ -775,7 +775,7 @@
         <v>3</v>
       </c>
       <c r="C6" s="9">
-        <v>25</v>
+        <v>17</v>
       </c>
       <c r="D6" s="7" t="s">
         <v>12</v>
@@ -793,7 +793,7 @@
         <v>4</v>
       </c>
       <c r="C7" s="9">
-        <v>25</v>
+        <v>17</v>
       </c>
       <c r="D7" s="7" t="s">
         <v>12</v>
@@ -820,7 +820,7 @@
   <dimension ref="B2:J7"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="I14" sqref="I14"/>
+      <selection activeCell="D28" sqref="D28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -831,15 +831,15 @@
   </cols>
   <sheetData>
     <row r="2" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="D2" s="18" t="s">
+      <c r="D2" s="20" t="s">
         <v>13</v>
       </c>
-      <c r="E2" s="18"/>
-      <c r="F2" s="18"/>
-      <c r="G2" s="18"/>
-      <c r="H2" s="18"/>
-      <c r="I2" s="18"/>
-      <c r="J2" s="18"/>
+      <c r="E2" s="20"/>
+      <c r="F2" s="20"/>
+      <c r="G2" s="20"/>
+      <c r="H2" s="20"/>
+      <c r="I2" s="20"/>
+      <c r="J2" s="20"/>
     </row>
     <row r="3" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B3" s="1" t="s">
@@ -878,25 +878,25 @@
         <v>1</v>
       </c>
       <c r="D4" s="13">
-        <v>75</v>
+        <v>100</v>
       </c>
       <c r="E4" s="13">
         <v>11</v>
       </c>
-      <c r="F4" s="20">
+      <c r="F4" s="18">
         <v>3</v>
       </c>
       <c r="G4" s="13">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="H4" s="13">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="I4" s="13">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="J4" s="13">
-        <v>40</v>
+        <v>30</v>
       </c>
     </row>
     <row r="5" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.3">
@@ -912,20 +912,20 @@
       <c r="E5" s="13">
         <v>11</v>
       </c>
-      <c r="F5" s="19">
+      <c r="F5" s="17">
         <v>3</v>
       </c>
       <c r="G5" s="13">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="H5" s="13">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="I5" s="13">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="J5" s="13">
-        <v>40</v>
+        <v>30</v>
       </c>
     </row>
     <row r="6" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.3">
@@ -941,7 +941,7 @@
       <c r="E6" s="13">
         <v>11</v>
       </c>
-      <c r="F6" s="19">
+      <c r="F6" s="17">
         <v>3</v>
       </c>
       <c r="G6" s="13">
@@ -951,10 +951,10 @@
         <v>85</v>
       </c>
       <c r="I6" s="13">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="J6" s="13">
-        <v>40</v>
+        <v>30</v>
       </c>
     </row>
     <row r="7" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.3">
@@ -965,25 +965,25 @@
         <v>1</v>
       </c>
       <c r="D7" s="13">
-        <v>75</v>
+        <v>100</v>
       </c>
       <c r="E7" s="13">
         <v>11</v>
       </c>
-      <c r="F7" s="19">
+      <c r="F7" s="17">
         <v>3</v>
       </c>
       <c r="G7" s="13">
-        <v>83</v>
+        <v>86</v>
       </c>
       <c r="H7" s="13">
-        <v>83</v>
+        <v>86</v>
       </c>
       <c r="I7" s="13">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="J7" s="13">
-        <v>40</v>
+        <v>30</v>
       </c>
     </row>
   </sheetData>
@@ -1000,7 +1000,7 @@
   <dimension ref="B2:D5"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="F6" sqref="F6"/>
+      <selection activeCell="B41" sqref="B41"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.109375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>

--- a/SimulatorUser/ImportData/userInfo.xlsx
+++ b/SimulatorUser/ImportData/userInfo.xlsx
@@ -8,16 +8,16 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\blazo\OneDrive\Namizje\GitHub\EthStevecDevice\SimulatorUser\ImportData\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AD2DEA6B-A7DA-486F-9A96-9442F1496553}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B375556F-655A-446C-A283-C5A82FD9B2F4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="15840" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="15840" tabRatio="500" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="userHomeProperties" sheetId="1" r:id="rId1"/>
     <sheet name="userCarProperties" sheetId="2" r:id="rId2"/>
     <sheet name="systemTariffPrices" sheetId="3" r:id="rId3"/>
   </sheets>
-  <calcPr calcId="0" iterateDelta="1E-4"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:loext="http://schemas.libreoffice.org/" uri="{7626C862-2A13-11E5-B345-FEFF819CDC9F}">
       <loext:extCalcPr stringRefSyntax="CalcA1"/>
@@ -649,8 +649,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="B2:K7"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="D18" sqref="D18"/>
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="E13" sqref="E13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -717,7 +717,7 @@
         <v>11</v>
       </c>
       <c r="E4" s="8">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="F4" s="8">
         <v>5</v>
@@ -732,7 +732,7 @@
         <v>85</v>
       </c>
       <c r="J4" s="8">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="K4" s="8">
         <v>2</v>
@@ -749,22 +749,22 @@
         <v>11</v>
       </c>
       <c r="E5" s="8">
-        <v>20</v>
+        <v>14</v>
       </c>
       <c r="F5" s="8">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="G5" s="8">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="H5" s="8">
-        <v>83</v>
+        <v>86</v>
       </c>
       <c r="I5" s="8">
-        <v>83</v>
+        <v>86</v>
       </c>
       <c r="J5" s="8">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="K5" s="8">
         <v>2</v>
@@ -820,7 +820,7 @@
   <dimension ref="B2:J7"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="D28" sqref="D28"/>
+      <selection activeCell="F28" sqref="F28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -886,14 +886,14 @@
       <c r="F4" s="18">
         <v>3</v>
       </c>
-      <c r="G4" s="13">
-        <v>83</v>
-      </c>
-      <c r="H4" s="13">
-        <v>83</v>
+      <c r="G4" s="8">
+        <v>85</v>
+      </c>
+      <c r="H4" s="8">
+        <v>85</v>
       </c>
       <c r="I4" s="13">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="J4" s="13">
         <v>30</v>
@@ -915,14 +915,14 @@
       <c r="F5" s="17">
         <v>3</v>
       </c>
-      <c r="G5" s="13">
-        <v>84</v>
-      </c>
-      <c r="H5" s="13">
-        <v>84</v>
+      <c r="G5" s="8">
+        <v>86</v>
+      </c>
+      <c r="H5" s="8">
+        <v>86</v>
       </c>
       <c r="I5" s="13">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="J5" s="13">
         <v>30</v>
@@ -944,14 +944,14 @@
       <c r="F6" s="17">
         <v>3</v>
       </c>
-      <c r="G6" s="13">
+      <c r="G6" s="8">
         <v>85</v>
       </c>
-      <c r="H6" s="13">
+      <c r="H6" s="8">
         <v>85</v>
       </c>
       <c r="I6" s="13">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="J6" s="13">
         <v>30</v>
@@ -973,14 +973,14 @@
       <c r="F7" s="17">
         <v>3</v>
       </c>
-      <c r="G7" s="13">
+      <c r="G7" s="8">
         <v>86</v>
       </c>
-      <c r="H7" s="13">
+      <c r="H7" s="8">
         <v>86</v>
       </c>
       <c r="I7" s="13">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="J7" s="13">
         <v>30</v>
@@ -999,8 +999,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="B2:D5"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="B41" sqref="B41"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="E21" sqref="E21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.109375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1024,10 +1024,10 @@
         <v>1</v>
       </c>
       <c r="C3" s="16">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="D3" s="16">
-        <v>10</v>
+        <v>14</v>
       </c>
     </row>
     <row r="4" spans="2:4" x14ac:dyDescent="0.3">
@@ -1035,10 +1035,10 @@
         <v>2</v>
       </c>
       <c r="C4" s="16">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="D4" s="16">
-        <v>20</v>
+        <v>16</v>
       </c>
     </row>
     <row r="5" spans="2:4" x14ac:dyDescent="0.3">
@@ -1046,10 +1046,10 @@
         <v>3</v>
       </c>
       <c r="C5" s="16">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="D5" s="16">
-        <v>30</v>
+        <v>22</v>
       </c>
     </row>
   </sheetData>

--- a/SimulatorUser/ImportData/userInfo.xlsx
+++ b/SimulatorUser/ImportData/userInfo.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\blazo\OneDrive\Namizje\GitHub\EthStevecDevice\SimulatorUser\ImportData\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B375556F-655A-446C-A283-C5A82FD9B2F4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3E3B1045-10BC-41CC-8B2E-9EA5DFCEE141}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="15840" tabRatio="500" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="15840" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="userHomeProperties" sheetId="1" r:id="rId1"/>
@@ -649,8 +649,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="B2:K7"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="E13" sqref="E13"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="I16" sqref="I16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -999,7 +999,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="B2:D5"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="E21" sqref="E21"/>
     </sheetView>
   </sheetViews>

--- a/SimulatorUser/ImportData/userInfo.xlsx
+++ b/SimulatorUser/ImportData/userInfo.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\blazo\OneDrive\Namizje\GitHub\EthStevecDevice\SimulatorUser\ImportData\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3E3B1045-10BC-41CC-8B2E-9EA5DFCEE141}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BABA186A-D694-4C6F-9480-6A8EE55D33EB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="15840" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -650,7 +650,7 @@
   <dimension ref="B2:K7"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="I16" sqref="I16"/>
+      <selection activeCell="J17" sqref="J17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -764,7 +764,7 @@
         <v>86</v>
       </c>
       <c r="J5" s="8">
-        <v>98</v>
+        <v>96</v>
       </c>
       <c r="K5" s="8">
         <v>2</v>
@@ -820,7 +820,7 @@
   <dimension ref="B2:J7"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="F28" sqref="F28"/>
+      <selection activeCell="H25" sqref="H25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>

--- a/SimulatorUser/ImportData/userInfo.xlsx
+++ b/SimulatorUser/ImportData/userInfo.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\blazo\OneDrive\Namizje\GitHub\EthStevecDevice\SimulatorUser\ImportData\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BABA186A-D694-4C6F-9480-6A8EE55D33EB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{86DF8BF3-2D5E-422B-9E1C-EB9CCC5D61FE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="15840" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="15840" tabRatio="500" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="userHomeProperties" sheetId="1" r:id="rId1"/>
@@ -649,8 +649,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="B2:K7"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="J17" sqref="J17"/>
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="E4" sqref="E4:K5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -732,7 +732,7 @@
         <v>85</v>
       </c>
       <c r="J4" s="8">
-        <v>98</v>
+        <v>96</v>
       </c>
       <c r="K4" s="8">
         <v>2</v>
@@ -764,7 +764,7 @@
         <v>86</v>
       </c>
       <c r="J5" s="8">
-        <v>96</v>
+        <v>98</v>
       </c>
       <c r="K5" s="8">
         <v>2</v>
@@ -820,7 +820,7 @@
   <dimension ref="B2:J7"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="H25" sqref="H25"/>
+      <selection activeCell="I12" sqref="I12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -999,8 +999,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="B2:D5"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="E21" sqref="E21"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="D18" sqref="D18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.109375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>

--- a/SimulatorUser/ImportData/userInfo.xlsx
+++ b/SimulatorUser/ImportData/userInfo.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\blazo\OneDrive\Namizje\GitHub\EthStevecDevice\SimulatorUser\ImportData\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{86DF8BF3-2D5E-422B-9E1C-EB9CCC5D61FE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{03D302FE-9D37-4860-8AB0-1D7111B1E5EF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="15840" tabRatio="500" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="15840" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="userHomeProperties" sheetId="1" r:id="rId1"/>
@@ -649,8 +649,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="B2:K7"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="E4" sqref="E4:K5"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="F24" sqref="F24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -820,7 +820,7 @@
   <dimension ref="B2:J7"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="I12" sqref="I12"/>
+      <selection activeCell="G29" sqref="G29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -875,7 +875,7 @@
         <v>1</v>
       </c>
       <c r="C4" s="6">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D4" s="13">
         <v>100</v>
@@ -904,7 +904,7 @@
         <v>2</v>
       </c>
       <c r="C5" s="9">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D5" s="13">
         <v>100</v>
@@ -933,7 +933,7 @@
         <v>3</v>
       </c>
       <c r="C6" s="9">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D6" s="13">
         <v>100</v>
@@ -962,7 +962,7 @@
         <v>4</v>
       </c>
       <c r="C7" s="9">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D7" s="13">
         <v>100</v>
@@ -999,7 +999,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="B2:D5"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="D18" sqref="D18"/>
     </sheetView>
   </sheetViews>

--- a/SimulatorUser/ImportData/userInfo.xlsx
+++ b/SimulatorUser/ImportData/userInfo.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\blazo\OneDrive\Namizje\GitHub\EthStevecDevice\SimulatorUser\ImportData\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{03D302FE-9D37-4860-8AB0-1D7111B1E5EF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8F360062-F555-49F6-AC8D-354A32FA1DE8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="15840" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="15840" tabRatio="500" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="userHomeProperties" sheetId="1" r:id="rId1"/>
@@ -649,8 +649,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="B2:K7"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="F24" sqref="F24"/>
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="F11" sqref="F11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -817,10 +817,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
-  <dimension ref="B2:J7"/>
+  <dimension ref="B2:J27"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="G29" sqref="G29"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="D27" sqref="D27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -984,6 +984,11 @@
       </c>
       <c r="J7" s="13">
         <v>30</v>
+      </c>
+    </row>
+    <row r="27" spans="4:4" x14ac:dyDescent="0.3">
+      <c r="D27">
+        <v>1</v>
       </c>
     </row>
   </sheetData>

--- a/SimulatorUser/ImportData/userInfo.xlsx
+++ b/SimulatorUser/ImportData/userInfo.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\blazo\OneDrive\Namizje\GitHub\EthStevecDevice\SimulatorUser\ImportData\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8F360062-F555-49F6-AC8D-354A32FA1DE8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EA9883AA-FE0A-4B4B-A2ED-9AB8AC4A03E5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="15840" tabRatio="500" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -820,7 +820,7 @@
   <dimension ref="B2:J27"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="D27" sqref="D27"/>
+      <selection activeCell="C29" sqref="C29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -875,7 +875,7 @@
         <v>1</v>
       </c>
       <c r="C4" s="6">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D4" s="13">
         <v>100</v>
@@ -904,7 +904,7 @@
         <v>2</v>
       </c>
       <c r="C5" s="9">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D5" s="13">
         <v>100</v>
@@ -933,7 +933,7 @@
         <v>3</v>
       </c>
       <c r="C6" s="9">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D6" s="13">
         <v>100</v>
@@ -962,7 +962,7 @@
         <v>4</v>
       </c>
       <c r="C7" s="9">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D7" s="13">
         <v>100</v>

--- a/SimulatorUser/ImportData/userInfo.xlsx
+++ b/SimulatorUser/ImportData/userInfo.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\blazo\OneDrive\Namizje\GitHub\EthStevecDevice\SimulatorUser\ImportData\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EA9883AA-FE0A-4B4B-A2ED-9AB8AC4A03E5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{26196DAE-F549-437D-8EBB-0F7684EA78E0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="15840" tabRatio="500" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -820,7 +820,7 @@
   <dimension ref="B2:J27"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="C29" sqref="C29"/>
+      <selection activeCell="C13" sqref="C13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -875,7 +875,7 @@
         <v>1</v>
       </c>
       <c r="C4" s="6">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D4" s="13">
         <v>100</v>
@@ -904,7 +904,7 @@
         <v>2</v>
       </c>
       <c r="C5" s="9">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D5" s="13">
         <v>100</v>
@@ -933,7 +933,7 @@
         <v>3</v>
       </c>
       <c r="C6" s="9">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D6" s="13">
         <v>100</v>
@@ -962,7 +962,7 @@
         <v>4</v>
       </c>
       <c r="C7" s="9">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D7" s="13">
         <v>100</v>

--- a/SimulatorUser/ImportData/userInfo.xlsx
+++ b/SimulatorUser/ImportData/userInfo.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\blazo\OneDrive\Namizje\GitHub\EthStevecDevice\SimulatorUser\ImportData\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{26196DAE-F549-437D-8EBB-0F7684EA78E0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{63F9FBD0-4B85-4D94-A900-CA32BD895A27}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="15840" tabRatio="500" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="15840" tabRatio="500" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="userHomeProperties" sheetId="1" r:id="rId1"/>
@@ -650,7 +650,7 @@
   <dimension ref="B2:K7"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="F11" sqref="F11"/>
+      <selection activeCell="D24" sqref="D24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -817,10 +817,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
-  <dimension ref="B2:J27"/>
+  <dimension ref="B2:J7"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="C13" sqref="C13"/>
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="D27" sqref="D27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -875,7 +875,7 @@
         <v>1</v>
       </c>
       <c r="C4" s="6">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D4" s="13">
         <v>100</v>
@@ -904,7 +904,7 @@
         <v>2</v>
       </c>
       <c r="C5" s="9">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D5" s="13">
         <v>100</v>
@@ -933,7 +933,7 @@
         <v>3</v>
       </c>
       <c r="C6" s="9">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D6" s="13">
         <v>100</v>
@@ -962,7 +962,7 @@
         <v>4</v>
       </c>
       <c r="C7" s="9">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D7" s="13">
         <v>100</v>
@@ -984,11 +984,6 @@
       </c>
       <c r="J7" s="13">
         <v>30</v>
-      </c>
-    </row>
-    <row r="27" spans="4:4" x14ac:dyDescent="0.3">
-      <c r="D27">
-        <v>1</v>
       </c>
     </row>
   </sheetData>
@@ -1004,8 +999,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="B2:D5"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="D18" sqref="D18"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="C21" sqref="C21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.109375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>

--- a/SimulatorUser/ImportData/userInfo.xlsx
+++ b/SimulatorUser/ImportData/userInfo.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\blazo\OneDrive\Namizje\GitHub\EthStevecDevice\SimulatorUser\ImportData\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{63F9FBD0-4B85-4D94-A900-CA32BD895A27}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A17F7D22-B1AB-470E-B0C8-B35644AE44FD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="15840" tabRatio="500" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="15840" tabRatio="500" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="userHomeProperties" sheetId="1" r:id="rId1"/>
@@ -819,8 +819,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="B2:J7"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="D27" sqref="D27"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="C15" sqref="C15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -875,7 +875,7 @@
         <v>1</v>
       </c>
       <c r="C4" s="6">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D4" s="13">
         <v>100</v>
@@ -904,7 +904,7 @@
         <v>2</v>
       </c>
       <c r="C5" s="9">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D5" s="13">
         <v>100</v>
@@ -933,7 +933,7 @@
         <v>3</v>
       </c>
       <c r="C6" s="9">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D6" s="13">
         <v>100</v>
@@ -962,7 +962,7 @@
         <v>4</v>
       </c>
       <c r="C7" s="9">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D7" s="13">
         <v>100</v>
@@ -999,7 +999,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="B2:D5"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="C21" sqref="C21"/>
     </sheetView>
   </sheetViews>

--- a/SimulatorUser/ImportData/userInfo.xlsx
+++ b/SimulatorUser/ImportData/userInfo.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\blazo\OneDrive\Namizje\GitHub\EthStevecDevice\SimulatorUser\ImportData\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A17F7D22-B1AB-470E-B0C8-B35644AE44FD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D42ED901-0AD4-4423-8405-99543542D18D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="15840" tabRatio="500" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -650,7 +650,7 @@
   <dimension ref="B2:K7"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="D24" sqref="D24"/>
+      <selection activeCell="K7" sqref="B2:K7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -820,7 +820,7 @@
   <dimension ref="B2:J7"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="C15" sqref="C15"/>
+      <selection activeCell="C11" sqref="C11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -875,7 +875,7 @@
         <v>1</v>
       </c>
       <c r="C4" s="6">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D4" s="13">
         <v>100</v>
@@ -904,7 +904,7 @@
         <v>2</v>
       </c>
       <c r="C5" s="9">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D5" s="13">
         <v>100</v>
@@ -933,7 +933,7 @@
         <v>3</v>
       </c>
       <c r="C6" s="9">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D6" s="13">
         <v>100</v>
@@ -962,7 +962,7 @@
         <v>4</v>
       </c>
       <c r="C7" s="9">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D7" s="13">
         <v>100</v>

--- a/SimulatorUser/ImportData/userInfo.xlsx
+++ b/SimulatorUser/ImportData/userInfo.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24228"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24326"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\blazo\OneDrive\Namizje\GitHub\EthStevecDevice\SimulatorUser\ImportData\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D42ED901-0AD4-4423-8405-99543542D18D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4A83818A-CB8C-4C2D-AC31-1DE231B01BD8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="15840" tabRatio="500" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="15840" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="userHomeProperties" sheetId="1" r:id="rId1"/>
@@ -649,8 +649,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="B2:K7"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="K7" sqref="B2:K7"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="E27" sqref="E27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -819,8 +819,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="B2:J7"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="C11" sqref="C11"/>
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="C4" sqref="C4:J8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
